--- a/Planeacion del proyecto/Plantillas/PLMaestroDocumentos.xlsx
+++ b/Planeacion del proyecto/Plantillas/PLMaestroDocumentos.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Planeacion del proyecto/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C31ADE-B2BC-A140-8272-8151F1343BB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
@@ -33,9 +34,6 @@
     <t>METFOR</t>
   </si>
   <si>
-    <t>CICLO I</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD PILOTO DE COLOMBIA</t>
   </si>
   <si>
@@ -106,6 +104,9 @@
   </si>
   <si>
     <t>CICLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICLO </t>
   </si>
 </sst>
 </file>
@@ -481,6 +482,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,27 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -930,7 +931,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="16">
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -947,7 +948,7 @@
     <row r="5" spans="2:10" ht="4.5" customHeight="1"/>
     <row r="6" spans="2:10" ht="16">
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="4"/>
@@ -959,7 +960,7 @@
     <row r="7" spans="2:10" ht="4.5" customHeight="1"/>
     <row r="8" spans="2:10" ht="16">
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -990,36 +991,36 @@
     </row>
     <row r="13" spans="2:10" ht="16" thickBot="1"/>
     <row r="14" spans="2:10" ht="18" customHeight="1">
-      <c r="B14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="G14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="12"/>
@@ -1405,17 +1406,17 @@
       <c r="D58" s="20"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:8" ht="16" thickBot="1">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="21"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="37"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="B14:H59" xr:uid="{F1589ACF-6535-FE46-990B-DE8C2392BE7C}"/>
@@ -1451,183 +1452,183 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1735,135 +1736,135 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="32" t="s">
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="33" t="s">
+      <c r="C49" s="40"/>
+      <c r="D49" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="50" spans="2:7">
